--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A630CD1F-9D2F-4453-9131-F6D8781559C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB4361-1A34-40ED-B09F-24E3E729033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="4710" windowWidth="14520" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>EAnimState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H49" s="4" t="s">
         <v>64</v>
       </c>
@@ -1079,7 +1092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H50" s="4" t="s">
         <v>65</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H51" s="4" t="s">
         <v>66</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H52" s="4" t="s">
         <v>67</v>
       </c>
@@ -1103,12 +1116,32 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J53">
         <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1117,6 +1150,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FB4361-1A34-40ED-B09F-24E3E729033F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EAB34C-6E27-4B43-AB0D-1CBEBE518EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -242,6 +242,22 @@
   </si>
   <si>
     <t>大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="B56" sqref="B56:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1150,7 @@
       <c r="D56" t="b">
         <v>1</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -1142,6 +1158,28 @@
       </c>
       <c r="J56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PCR\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EAB34C-6E27-4B43-AB0D-1CBEBE518EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA165CD-BE4B-4FF9-8544-2FB9FF829395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -258,6 +258,26 @@
   </si>
   <si>
     <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,10 +366,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -625,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:J58"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,13 +687,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1161,7 +1182,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I57" s="3" t="s">
@@ -1172,7 +1193,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I58" s="3" t="s">
@@ -1181,6 +1202,41 @@
       <c r="J58">
         <v>2</v>
       </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="5"/>
+      <c r="I62" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA165CD-BE4B-4FF9-8544-2FB9FF829395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471C8EA-0952-4FE4-A05A-D4C6ACC28410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -278,6 +278,18 @@
   </si>
   <si>
     <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpBall1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级经验球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,10 +379,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -646,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,13 +699,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1213,7 +1225,7 @@
       <c r="D60" t="b">
         <v>1</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -1224,7 +1236,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -1235,8 +1247,29 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
       <c r="H62" s="5"/>
       <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471C8EA-0952-4FE4-A05A-D4C6ACC28410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03398E-DB29-40F0-BEC9-5FDBA7DB5CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -290,6 +290,26 @@
   </si>
   <si>
     <t>一级经验球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCharacterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeiKeLiMu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaoYeYouYi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩可莉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草野优衣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1271,6 +1291,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03398E-DB29-40F0-BEC9-5FDBA7DB5CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9EC2F-AD10-4C40-BD14-600FA984C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>##var</t>
   </si>
@@ -229,14 +229,6 @@
     <t>SkillEvolution0</t>
   </si>
   <si>
-    <t>EAnimState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,30 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillKind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpBall1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCharacterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PeiKeLiMu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +274,22 @@
   </si>
   <si>
     <t>草野优衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAnimState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCharacterType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,7 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,13 +698,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -785,7 +764,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1195,7 +1174,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -1204,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1215,10 +1194,10 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H57" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -1226,99 +1205,68 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H58" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J58">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="3"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C60" t="b">
+      <c r="I64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="6" t="s">
+    </row>
+    <row r="65" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H61" s="6" t="s">
+      <c r="I65" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H67" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J67">
+      <c r="J65">
         <v>1</v>
       </c>
     </row>

--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shaw\UnityWorkspace\New_PCR\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9EC2F-AD10-4C40-BD14-600FA984C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3EC709-9101-4B77-81C2-1AE3A1357DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -290,6 +290,13 @@
   </si>
   <si>
     <t>TCharacterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BingChuanJingHua</t>
+  </si>
+  <si>
+    <t>冰川镜华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1270,6 +1278,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="66" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
